--- a/TranMACASims/开发日志和bugshooting.xlsx
+++ b/TranMACASims/开发日志和bugshooting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改路网创建模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>undone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,90 @@
   </si>
   <si>
     <t>耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改仿真模型中路网创建模式，所有trafficmodel使用工厂模式创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善用户界面。启用多窗口GUI界面指引。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加驾驶员模型动态编译功能，依赖C#的动态编译实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加路网保存模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加路网载入模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加更多仿真模型的功能，挖掘现有仿真模型的潜力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加单个车辆状态跟踪窗口，实现车辆速度，车头时距，驾驶员模型的更新等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业用户使用动态模型编译，进行自己的模型研究。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加基础用户模型参数录入和标定功能，专业用户使用动态编译自己的模型实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加路网创建和编辑模块，解决基础用户无法创建自己路网的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有条件的情况下，增加仿真状态即时保存和即时恢复功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切进行顺利的情况下，增加系统自动升级功能（需架设升级服务器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划子分枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建交通仿真软件论坛。后续功能增加和升级计划，根据论坛反馈获取。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,12 +219,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -153,12 +257,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,110 +556,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H8"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
-        <v>42424</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
